--- a/bioSample/bioSample_J.PLAGGENBERG_10.10.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_10.10.19.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866094AA-15DA-014D-AC5D-54E3D3FCBCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69FEBDC-5985-8F44-9EA5-2A3BB0572CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="460" windowWidth="24440" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -399,7 +409,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="C22" sqref="C22:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -456,7 +466,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -503,7 +513,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -535,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -567,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -599,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -631,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -663,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -695,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -727,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -759,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -791,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -823,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -855,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -887,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -919,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -951,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -983,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1511,35 +1521,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="2"/>
       <c r="G34" s="4"/>
       <c r="H34" s="11"/>
       <c r="I34" s="12"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="2"/>
       <c r="G35" s="4"/>
       <c r="H35" s="11"/>
       <c r="I35" s="12"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
       <c r="G36" s="4"/>
       <c r="H36" s="11"/>
       <c r="I36" s="12"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
       <c r="G37" s="4"/>
       <c r="H37" s="11"/>
       <c r="I37" s="12"/>
       <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
       <c r="G38" s="4"/>
       <c r="H38" s="11"/>
@@ -1547,7 +1557,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="G39" s="4"/>
       <c r="H39" s="11"/>
@@ -1555,7 +1565,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="2"/>
       <c r="G40" s="4"/>
       <c r="H40" s="11"/>
@@ -1563,7 +1573,7 @@
       <c r="J40" s="13"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="G41" s="4"/>
       <c r="H41" s="11"/>

--- a/bioSample/bioSample_J.PLAGGENBERG_10.10.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_10.10.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">experimentDesign</t>
@@ -95,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,6 +126,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -150,6 +156,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,15 +210,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,7 +230,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,27 +258,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,7 +282,7 @@
   <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,7 +297,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -338,29 +349,29 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="7" t="n">
+      <c r="I2" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="M2" s="1"/>
@@ -385,28 +396,28 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="7" t="n">
+      <c r="I3" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -417,28 +428,28 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -449,28 +460,28 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -481,28 +492,28 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -513,28 +524,28 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="L7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,19 +556,19 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -566,7 +577,7 @@
       <c r="K8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -577,19 +588,19 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -598,7 +609,7 @@
       <c r="K9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,28 +620,28 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -641,28 +652,28 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" s="7" t="n">
+      <c r="I11" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -673,28 +684,28 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L12" s="7" t="n">
+      <c r="K12" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -705,19 +716,19 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="C13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -726,7 +737,7 @@
       <c r="K13" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -737,28 +748,28 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="C14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -769,28 +780,28 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="C15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -801,19 +812,19 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="C16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -822,7 +833,7 @@
       <c r="K16" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,19 +844,19 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="C17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -854,7 +865,7 @@
       <c r="K17" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="L17" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -865,28 +876,28 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="C18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="7" t="n">
+      <c r="I18" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -897,28 +908,28 @@
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="7" t="n">
+      <c r="I19" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="L19" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -929,28 +940,28 @@
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="C20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,428 +972,428 @@
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="C21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="6" t="n">
         <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="L21" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="n">
+      <c r="A22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9" t="s">
+      <c r="D22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="7" t="n">
+      <c r="H22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="L22" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="n">
+      <c r="A23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="D23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="n">
+      <c r="H23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="L23" s="7" t="n">
+      <c r="L23" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2" t="n">
+      <c r="A24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="D24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L24" s="7" t="n">
+      <c r="H24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="n">
+      <c r="A25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="D25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L25" s="7" t="n">
+      <c r="H25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L25" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="2" t="n">
+      <c r="A26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="D26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="n">
+      <c r="H26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="L26" s="7" t="n">
+      <c r="L26" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2" t="n">
+      <c r="A27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="D27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="7" t="n">
+      <c r="H27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="L27" s="7" t="n">
+      <c r="L27" s="8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2" t="n">
+      <c r="A28" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="D28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="7" t="n">
+      <c r="H28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="L28" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2" t="n">
+      <c r="A29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="10" t="s">
+      <c r="D29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="7" t="n">
+      <c r="H29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="8" t="n">
         <v>-1</v>
       </c>
-      <c r="L29" s="7" t="n">
+      <c r="L29" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="2" t="n">
+      <c r="A30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="D30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L30" s="7" t="n">
+      <c r="H30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L30" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="A31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="L31" s="7" t="n">
+      <c r="H31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L31" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="2" t="n">
+      <c r="A32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="D32" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="7" t="n">
+      <c r="H32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="L32" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2" t="n">
+      <c r="A33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="D33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="7" t="n">
+      <c r="H33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="L33" s="7" t="n">
+      <c r="L33" s="8" t="n">
         <v>5</v>
       </c>
     </row>

--- a/bioSample/bioSample_J.PLAGGENBERG_10.10.19.xlsx
+++ b/bioSample/bioSample_J.PLAGGENBERG_10.10.19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D7FD52-C65A-C445-9E15-47E46B599C11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE28A2F7-B00E-214F-9F38-F541C2C62E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20740" yWindow="460" windowWidth="17600" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10540" yWindow="460" windowWidth="27800" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>SCGal</t>
   </si>
   <si>
-    <t>EtOH</t>
-  </si>
-  <si>
     <t>TYE7</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>CBF1</t>
+  </si>
+  <si>
+    <t>mockEstradiol</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,7 +183,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +500,7 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -585,7 +584,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" s="8">
         <v>-1</v>
@@ -622,7 +621,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>16</v>
@@ -631,7 +630,7 @@
         <v>30</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K3" s="8">
         <v>-1</v>
@@ -663,7 +662,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="8">
         <v>-1</v>
@@ -686,16 +685,16 @@
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="6">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="6">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K5" s="8">
         <v>-1</v>
@@ -727,7 +726,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -750,7 +749,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
@@ -759,7 +758,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
@@ -791,7 +790,7 @@
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
@@ -823,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K9" s="1">
         <v>15</v>
@@ -846,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
@@ -855,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K10" s="8">
         <v>15</v>
@@ -887,7 +886,7 @@
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="8">
         <v>15</v>
@@ -910,16 +909,16 @@
         <v>14</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="6">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="6">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K12" s="1">
         <v>15</v>
@@ -951,7 +950,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1">
         <v>20</v>
@@ -974,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
@@ -983,7 +982,7 @@
         <v>30</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" s="1">
         <v>20</v>
@@ -1015,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="1">
         <v>20</v>
@@ -1047,7 +1046,7 @@
         <v>30</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="8">
         <v>90</v>
@@ -1070,7 +1069,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
@@ -1079,7 +1078,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K17" s="8">
         <v>90</v>
@@ -1111,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="8">
         <v>90</v>
@@ -1134,16 +1133,16 @@
         <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="6">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="6">
-        <v>30</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K19" s="8">
         <v>90</v>
@@ -1163,11 +1162,11 @@
         <v>22</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="H20" s="10" t="s">
         <v>16</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="8">
         <v>-1</v>
@@ -1195,19 +1194,19 @@
         <v>23</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="6">
+        <v>30</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="6">
-        <v>30</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="K21" s="8">
         <v>15</v>
@@ -1227,11 +1226,11 @@
         <v>24</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="H22" s="10" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" s="8">
         <v>15</v>
@@ -1259,19 +1258,19 @@
         <v>25</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="6">
+        <v>30</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="6">
-        <v>30</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="K23" s="8">
         <v>90</v>
@@ -1291,11 +1290,11 @@
         <v>26</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="H24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K24" s="8">
         <v>90</v>
@@ -1323,19 +1322,19 @@
         <v>27</v>
       </c>
       <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="6">
+        <v>30</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="6">
-        <v>30</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="K25" s="8">
         <v>-1</v>
@@ -1355,11 +1354,11 @@
         <v>28</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="H26" s="10" t="s">
         <v>16</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="8">
         <v>-1</v>
@@ -1387,19 +1386,19 @@
         <v>29</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="H27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="6">
+        <v>30</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="6">
-        <v>30</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="K27" s="8">
         <v>15</v>
@@ -1419,11 +1418,11 @@
         <v>30</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="H28" s="10" t="s">
         <v>16</v>
       </c>
@@ -1431,7 +1430,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K28" s="8">
         <v>15</v>
@@ -1451,19 +1450,19 @@
         <v>31</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="6">
+        <v>30</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="6">
-        <v>30</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="K29" s="8">
         <v>90</v>
